--- a/Git_BOSS통합버전+아웃룩일정추출/Outlook_Sendmail.xlsx
+++ b/Git_BOSS통합버전+아웃룩일정추출/Outlook_Sendmail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://digitaledgeasia-my.sharepoint.com/personal/isaac_shin_digitaledgedc_com/Documents/문서/UiPath/.repositories/DEK_RPA/Git_BOSS통합버전+아웃룩일정추출/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{BA86E4E1-0712-4DFA-8AA5-B88740B280AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{365A5CA9-6626-4ABB-8C58-31CC7E8860B7}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{BA86E4E1-0712-4DFA-8AA5-B88740B280AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EE9FDD2-B933-4D9E-B8EB-7691022874E4}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{4D7D961C-C7B6-4FA5-B56F-6B98CF210E33}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{4D7D961C-C7B6-4FA5-B56F-6B98CF210E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,15 +58,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">엑셀로 제목 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엑셀 내용 테스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JeongWon Kim &lt;jeongwon.kim@digitaledgedc.com&gt;; Isaac Shin &lt;isaac.shin@digitaledgedc.com&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A사 BMS 및 BOSS데이터 전달드립니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세요 디지털엣지 코리아입니다.
+요청하신 리포트자료 전달드립니다.
+감사합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -125,12 +127,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -450,7 +455,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -464,7 +469,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -483,15 +488,15 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="221.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Git_BOSS통합버전+아웃룩일정추출/Outlook_Sendmail.xlsx
+++ b/Git_BOSS통합버전+아웃룩일정추출/Outlook_Sendmail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://digitaledgeasia-my.sharepoint.com/personal/isaac_shin_digitaledgedc_com/Documents/문서/UiPath/.repositories/DEK_RPA/Git_BOSS통합버전+아웃룩일정추출/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{BA86E4E1-0712-4DFA-8AA5-B88740B280AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EE9FDD2-B933-4D9E-B8EB-7691022874E4}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{BA86E4E1-0712-4DFA-8AA5-B88740B280AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE1D1647-4F08-47C1-99D6-905D6E31D4E9}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{4D7D961C-C7B6-4FA5-B56F-6B98CF210E33}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="20304" windowHeight="12780" xr2:uid="{4D7D961C-C7B6-4FA5-B56F-6B98CF210E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JeongWon Kim &lt;jeongwon.kim@digitaledgedc.com&gt;; Isaac Shin &lt;isaac.shin@digitaledgedc.com&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A사 BMS 및 BOSS데이터 전달드립니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -69,6 +65,10 @@
     <t>안녕하세요 디지털엣지 코리아입니다.
 요청하신 리포트자료 전달드립니다.
 감사합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Isaac Shin &lt;isaac.shin@digitaledgedc.com&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,7 +455,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -469,7 +469,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="221.4" customHeight="1" x14ac:dyDescent="0.4">
@@ -496,7 +496,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Git_BOSS통합버전+아웃룩일정추출/Outlook_Sendmail.xlsx
+++ b/Git_BOSS통합버전+아웃룩일정추출/Outlook_Sendmail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://digitaledgeasia-my.sharepoint.com/personal/isaac_shin_digitaledgedc_com/Documents/문서/UiPath/.repositories/DEK_RPA/Git_BOSS통합버전+아웃룩일정추출/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{BA86E4E1-0712-4DFA-8AA5-B88740B280AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE1D1647-4F08-47C1-99D6-905D6E31D4E9}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{BA86E4E1-0712-4DFA-8AA5-B88740B280AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22EE7036-39FB-4C7B-9346-231020A21A75}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="20304" windowHeight="12780" xr2:uid="{4D7D961C-C7B6-4FA5-B56F-6B98CF210E33}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{4D7D961C-C7B6-4FA5-B56F-6B98CF210E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,17 +58,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A사 BMS 및 BOSS데이터 전달드립니다.</t>
+    <t>Isaac Shin &lt;isaac.shin@digitaledgedc.com&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디지털엣지 코리아입니다. 요청하신 Customer Report 보내드립니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>안녕하세요 디지털엣지 코리아입니다.
-요청하신 리포트자료 전달드립니다.
+요청하신 Customer Report자료 첨부하여 드립니다.
+확인 후 문의사항 있으시면 회신주세요.
 감사합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Isaac Shin &lt;isaac.shin@digitaledgedc.com&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -135,7 +136,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -455,7 +456,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -469,7 +470,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -488,7 +489,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="221.4" customHeight="1" x14ac:dyDescent="0.4">
@@ -496,7 +497,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
